--- a/clients_generated_refill - fonction2.xlsx
+++ b/clients_generated_refill - fonction2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Formation web\Programmes_Prospection\Fichier_final_gp\GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D192B1-B637-4095-BFAA-B46C0B0B4723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327F2A6-219C-4722-86D5-D87C77FFCC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -100,36 +100,6 @@
     <t>Conseil</t>
   </si>
   <si>
-    <t>31923267568512</t>
-  </si>
-  <si>
-    <t>94744793825423</t>
-  </si>
-  <si>
-    <t>50814486170366</t>
-  </si>
-  <si>
-    <t>77237310773003</t>
-  </si>
-  <si>
-    <t>67682415029256</t>
-  </si>
-  <si>
-    <t>67934500010019</t>
-  </si>
-  <si>
-    <t>78326644435494</t>
-  </si>
-  <si>
-    <t>53761431950848</t>
-  </si>
-  <si>
-    <t>24274518163069</t>
-  </si>
-  <si>
-    <t>64996150019790</t>
-  </si>
-  <si>
     <t>B2C</t>
   </si>
   <si>
@@ -409,36 +379,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>Société 35</t>
-  </si>
-  <si>
-    <t>Société 36</t>
-  </si>
-  <si>
-    <t>Société 37</t>
-  </si>
-  <si>
-    <t>Société 38</t>
-  </si>
-  <si>
-    <t>Société 39</t>
-  </si>
-  <si>
-    <t>Société 40</t>
-  </si>
-  <si>
-    <t>Société 41</t>
-  </si>
-  <si>
-    <t>Société 42</t>
-  </si>
-  <si>
-    <t>Société 43</t>
-  </si>
-  <si>
-    <t>Société 44</t>
-  </si>
-  <si>
     <t>Moreaud</t>
   </si>
   <si>
@@ -464,6 +404,36 @@
   </si>
   <si>
     <t>a002</t>
+  </si>
+  <si>
+    <t>Société 70</t>
+  </si>
+  <si>
+    <t>Société 71</t>
+  </si>
+  <si>
+    <t>Société 72</t>
+  </si>
+  <si>
+    <t>Société 73</t>
+  </si>
+  <si>
+    <t>Société 74</t>
+  </si>
+  <si>
+    <t>Société 75</t>
+  </si>
+  <si>
+    <t>Société 76</t>
+  </si>
+  <si>
+    <t>Société 77</t>
+  </si>
+  <si>
+    <t>Société 78</t>
+  </si>
+  <si>
+    <t>Société 79</t>
   </si>
 </sst>
 </file>
@@ -534,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -542,6 +512,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,6 +828,7 @@
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -927,657 +899,638 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>202412041529</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2">
-        <v>138590021</v>
-      </c>
-      <c r="E2" t="s">
+        <v>138590042</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13859004200007</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>87</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>107</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>117</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>127</v>
       </c>
-      <c r="T2" t="s">
-        <v>147</v>
-      </c>
       <c r="U2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>202412041530</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>138590022</v>
-      </c>
-      <c r="E3" t="s">
+        <v>138590043</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13859004300007</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>88</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>108</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" t="s">
         <v>118</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>147</v>
-      </c>
-      <c r="U3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>202412041531</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4">
-        <v>138590023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+        <v>138590044</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13859004400007</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>59</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>109</v>
       </c>
-      <c r="R4" t="s">
-        <v>119</v>
-      </c>
       <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" t="s">
         <v>127</v>
       </c>
-      <c r="T4" t="s">
-        <v>147</v>
-      </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>202412041532</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5">
-        <v>138590024</v>
-      </c>
-      <c r="E5" t="s">
+        <v>138590045</v>
+      </c>
+      <c r="E5" s="3">
+        <v>13859004500007</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
         <v>60</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>90</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>110</v>
       </c>
-      <c r="R5" t="s">
-        <v>120</v>
-      </c>
       <c r="S5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" t="s">
         <v>127</v>
       </c>
-      <c r="T5" t="s">
-        <v>147</v>
-      </c>
       <c r="U5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>202412041533</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>138590025</v>
-      </c>
-      <c r="E6" t="s">
+        <v>138590046</v>
+      </c>
+      <c r="E6" s="3">
+        <v>13859004600007</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>91</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>111</v>
       </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
       <c r="S6" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" t="s">
         <v>127</v>
       </c>
-      <c r="T6" t="s">
-        <v>147</v>
-      </c>
       <c r="U6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>202412041534</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>138590026</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
+        <v>138590047</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13859004700007</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>72</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>82</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>92</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>112</v>
       </c>
-      <c r="R7" t="s">
-        <v>122</v>
-      </c>
       <c r="S7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" t="s">
         <v>127</v>
       </c>
-      <c r="T7" t="s">
-        <v>147</v>
-      </c>
       <c r="U7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>202412041535</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>138590027</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>138590048</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13859004800007</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>113</v>
       </c>
-      <c r="R8" t="s">
-        <v>123</v>
-      </c>
       <c r="S8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" t="s">
         <v>127</v>
       </c>
-      <c r="T8" t="s">
-        <v>147</v>
-      </c>
       <c r="U8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>202412041536</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1385900298</v>
-      </c>
-      <c r="E9" t="s">
+        <v>138590049</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13859004900007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
         <v>64</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>84</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>94</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>114</v>
       </c>
-      <c r="R9" t="s">
-        <v>124</v>
-      </c>
       <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
         <v>127</v>
       </c>
-      <c r="T9" t="s">
-        <v>147</v>
-      </c>
       <c r="U9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>202412041537</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10">
-        <v>138590029</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
+        <v>138590050</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13859005000007</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
         <v>65</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>75</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>85</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>95</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>115</v>
       </c>
-      <c r="R10" t="s">
-        <v>125</v>
-      </c>
       <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
         <v>127</v>
       </c>
-      <c r="T10" t="s">
-        <v>147</v>
-      </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>202412041538</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11">
-        <v>138590030</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+        <v>138590051</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13859005100007</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
         <v>56</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>66</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>76</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>86</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>96</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>106</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>116</v>
       </c>
-      <c r="R11" t="s">
-        <v>126</v>
-      </c>
       <c r="S11" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" t="s">
         <v>127</v>
       </c>
-      <c r="T11" t="s">
-        <v>147</v>
-      </c>
       <c r="U11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>